--- a/modules/2-pyrolysis/2-pyrolyisis-woolf2021-biochar-carbon-yield.xlsx
+++ b/modules/2-pyrolysis/2-pyrolyisis-woolf2021-biochar-carbon-yield.xlsx
@@ -140,7 +140,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -239,15 +239,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -260,8 +251,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -378,34 +378,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.32509885773552455</c:v>
+                  <c:v>0.39192890673552455</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28914885064186813</c:v>
+                  <c:v>0.35597889964186813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25971547426092001</c:v>
+                  <c:v>0.32654552326092001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21588768164025732</c:v>
+                  <c:v>0.28271773064025729</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1997343021928579</c:v>
+                  <c:v>0.26656435119285787</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18303039733129381</c:v>
+                  <c:v>0.24986044633129378</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17015082499867293</c:v>
+                  <c:v>0.2369808739986729</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16022001032713387</c:v>
+                  <c:v>0.22705005932713385</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15256283992632233</c:v>
+                  <c:v>0.2193928889263223</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14665876654600848</c:v>
+                  <c:v>0.21348881554600846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -493,34 +493,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.32474630073552457</c:v>
+                  <c:v>0.35667320673552455</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28879629364186815</c:v>
+                  <c:v>0.32072319964186813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25936291726092003</c:v>
+                  <c:v>0.29128982326092001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21553512464025731</c:v>
+                  <c:v>0.24746203064025729</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1993817451928579</c:v>
+                  <c:v>0.23130865119285787</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18267784033129381</c:v>
+                  <c:v>0.21460474633129378</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16979826799867292</c:v>
+                  <c:v>0.2017251739986729</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15986745332713387</c:v>
+                  <c:v>0.19179435932713385</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15221028292632233</c:v>
+                  <c:v>0.1841371889263223</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14630620954600848</c:v>
+                  <c:v>0.17823311554600846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -608,34 +608,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.32458778673552457</c:v>
+                  <c:v>0.34082180673552459</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28863777964186815</c:v>
+                  <c:v>0.30487179964186817</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25920440326092004</c:v>
+                  <c:v>0.27543842326092005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21537661064025732</c:v>
+                  <c:v>0.2316106306402573</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1992232311928579</c:v>
+                  <c:v>0.21545725119285788</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18251932633129381</c:v>
+                  <c:v>0.1987533463312938</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16963975399867293</c:v>
+                  <c:v>0.18587377399867291</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15970893932713387</c:v>
+                  <c:v>0.17594295932713386</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15205176892632233</c:v>
+                  <c:v>0.16828578892632232</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14614769554600848</c:v>
+                  <c:v>0.16238171554600847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,7 +710,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -833,7 +832,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -914,7 +912,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1072,34 +1069,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.56951706920121925</c:v>
+                  <c:v>0.57573949899674803</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62173346877196423</c:v>
+                  <c:v>0.63009738511544333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66236120552712541</c:v>
+                  <c:v>0.67311921724328461</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71786047761174476</c:v>
+                  <c:v>0.73390433954810941</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73624536266345986</c:v>
+                  <c:v>0.75502649176795311</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75366577121197886</c:v>
+                  <c:v>0.77593493984243345</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76573330781886395</c:v>
+                  <c:v>0.79128209257322002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77404616517093494</c:v>
+                  <c:v>0.8025667166474677</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77975469163680844</c:v>
+                  <c:v>0.81088469876849689</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.78367174161611597</c:v>
+                  <c:v>0.81703360762850497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1187,34 +1184,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.50023103184366002</c:v>
+                  <c:v>0.50829940394135487</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53851108136709869</c:v>
+                  <c:v>0.54917676516504244</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56577134298827669</c:v>
+                  <c:v>0.57926507897718849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59709392136899886</c:v>
+                  <c:v>0.6165963042587661</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60495076475036524</c:v>
+                  <c:v>0.62745570733441436</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61036909366582992</c:v>
+                  <c:v>0.6366064093850885</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61231224805035023</c:v>
+                  <c:v>0.6419718070140793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.61224993442714681</c:v>
+                  <c:v>0.6449435746579012</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61114022778197818</c:v>
+                  <c:v>0.64644907431887944</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.60957739059038352</c:v>
+                  <c:v>0.64708861559433528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1302,34 +1299,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.27466089375077823</c:v>
+                  <c:v>0.28202643925258797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28288754871508665</c:v>
+                  <c:v>0.29185740406121036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28510250662004283</c:v>
+                  <c:v>0.29561172274806524</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27957407209641205</c:v>
+                  <c:v>0.29284546578869847</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27448880009366444</c:v>
+                  <c:v>0.28894864713838891</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26728144411074717</c:v>
+                  <c:v>0.28308330506726398</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26026259159620063</c:v>
+                  <c:v>0.2771854198611991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25391822019617905</c:v>
+                  <c:v>0.27176071361820059</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24843838045964511</c:v>
+                  <c:v>0.26702465738475173</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24384537503739323</c:v>
+                  <c:v>0.2630264083795032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1404,7 +1401,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1527,7 +1523,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1608,7 +1603,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1766,34 +1760,34 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.18514934865820007</c:v>
+                  <c:v>0.2256489524062541</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17977351790099527</c:v>
+                  <c:v>0.22430137382061394</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17202545462551208</c:v>
+                  <c:v>0.21980406701168925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15497723425276741</c:v>
+                  <c:v>0.20748776938407831</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14705345375431375</c:v>
+                  <c:v>0.20126314691154407</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13794374555992447</c:v>
+                  <c:v>0.19387545039307602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13029015405434247</c:v>
+                  <c:v>0.18751872187750049</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12401768457736556</c:v>
+                  <c:v>0.18222282062879055</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11896159020198524</c:v>
+                  <c:v>0.17790233664897115</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11493233100238183</c:v>
+                  <c:v>0.17442753715389175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1881,34 +1875,34 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.16244817710434298</c:v>
+                  <c:v>0.18129677838551878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15552000438389257</c:v>
+                  <c:v>0.17613372929270324</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14674010602006801</c:v>
+                  <c:v>0.16873402247648811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12869471276420716</c:v>
+                  <c:v>0.15258417353715217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12061613923168184</c:v>
+                  <c:v>0.14513593334678396</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11150090783584299</c:v>
+                  <c:v>0.13661875699896267</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10396955919332326</c:v>
+                  <c:v>0.12950187447215761</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.7878837816572667E-2</c:v>
+                  <c:v>0.12369653970366368</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3021826978351971E-2</c:v>
+                  <c:v>0.11903531532910167</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.918495744222571E-2</c:v>
+                  <c:v>0.11533261999173181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1993,37 +1987,37 @@
             <c:numRef>
               <c:f>equations!$I$28:$I$37</c:f>
               <c:numCache>
-                <c:formatCode>0\.000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.9151571605366187E-2</c:v>
+                  <c:v>9.6120760573253708E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1652033949453418E-2</c:v>
+                  <c:v>8.8979092014945083E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3899825096640712E-2</c:v>
+                  <c:v>8.1422826811171342E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0213716071020162E-2</c:v>
+                  <c:v>6.7826123011460349E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4684545680910267E-2</c:v>
+                  <c:v>6.2256081248332318E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8784029119948932E-2</c:v>
+                  <c:v>5.6263754172641213E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4150882013436553E-2</c:v>
+                  <c:v>5.1521500087007781E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0553009623365374E-2</c:v>
+                  <c:v>4.7814384182839939E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7775495218079713E-2</c:v>
+                  <c:v>4.4936455130773864E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5637439631267205E-2</c:v>
+                  <c:v>4.2710679426568747E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2098,7 +2092,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2220,7 +2213,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2301,7 +2293,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4410,7 +4401,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4426,15 +4417,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="F1" s="11" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="F1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="11"/>
+      <c r="G1" s="15"/>
       <c r="I1" s="8" t="s">
         <v>34</v>
       </c>
@@ -4492,23 +4483,23 @@
       <c r="B5" s="8">
         <v>600</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
         <v>0.247</v>
       </c>
-      <c r="F5" s="13">
-        <f>0.1261+0.5391*EXP(-0.004*B5)+0.002733*D5</f>
-        <v>0.17568109961832229</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="F5" s="10">
+        <f>0.1261+0.5391*EXP(-0.004*B5)+0.2733*D5</f>
+        <v>0.24251114861832229</v>
+      </c>
+      <c r="G5" s="10">
         <f>(1-C5/(C5+F5))*(0.93 - 0.92*EXP(-0.0042*B5))</f>
-        <v>0.7607151585147055</v>
-      </c>
-      <c r="I5" s="16">
+        <v>0.78478357445864455</v>
+      </c>
+      <c r="I5" s="13">
         <f>G5*F5</f>
-        <v>0.13364327554418981</v>
+        <v>0.19031876605875855</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -4523,24 +4514,24 @@
       <c r="B8" s="8">
         <v>250</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <v>0.247</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13">
-        <f>0.1261+0.5391*EXP(-0.004*B8)+0.002733*D8</f>
-        <v>0.32509885773552455</v>
-      </c>
-      <c r="G8" s="13">
+      <c r="E8" s="9"/>
+      <c r="F8" s="10">
+        <f>0.1261+0.5391*EXP(-0.004*B8)+0.2733*D8</f>
+        <v>0.39192890673552455</v>
+      </c>
+      <c r="G8" s="10">
         <f>(1-C8/(C8+F8))*(0.93 - 0.92*EXP(-0.0042*B8))</f>
-        <v>0.56951706920121925</v>
-      </c>
-      <c r="I8" s="16">
+        <v>0.57573949899674803</v>
+      </c>
+      <c r="I8" s="13">
         <f>G8*F8</f>
-        <v>0.18514934865820007</v>
+        <v>0.2256489524062541</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -4550,24 +4541,24 @@
       <c r="B9" s="8">
         <v>300</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="9">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="9">
         <v>0.247</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13">
-        <f t="shared" ref="F9:F18" si="0">0.1261+0.5391*EXP(-0.004*B9)+0.002733*D9</f>
-        <v>0.28914885064186813</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="E9" s="9"/>
+      <c r="F9" s="10">
+        <f t="shared" ref="F9:F37" si="0">0.1261+0.5391*EXP(-0.004*B9)+0.2733*D9</f>
+        <v>0.35597889964186813</v>
+      </c>
+      <c r="G9" s="10">
         <f t="shared" ref="G9:G18" si="1">(1-C9/(C9+F9))*(0.93 - 0.92*EXP(-0.0042*B9))</f>
-        <v>0.62173346877196423</v>
-      </c>
-      <c r="I9" s="16">
+        <v>0.63009738511544333</v>
+      </c>
+      <c r="I9" s="13">
         <f t="shared" ref="I9:I37" si="2">G9*F9</f>
-        <v>0.17977351790099527</v>
+        <v>0.22430137382061394</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -4577,24 +4568,24 @@
       <c r="B10" s="8">
         <v>350</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <v>0.247</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13">
+      <c r="E10" s="9"/>
+      <c r="F10" s="10">
         <f t="shared" si="0"/>
-        <v>0.25971547426092001</v>
-      </c>
-      <c r="G10" s="13">
+        <v>0.32654552326092001</v>
+      </c>
+      <c r="G10" s="10">
         <f t="shared" si="1"/>
-        <v>0.66236120552712541</v>
-      </c>
-      <c r="I10" s="16">
+        <v>0.67311921724328461</v>
+      </c>
+      <c r="I10" s="13">
         <f t="shared" si="2"/>
-        <v>0.17202545462551208</v>
+        <v>0.21980406701168925</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -4604,24 +4595,24 @@
       <c r="B11" s="8">
         <v>450</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="9">
         <v>0.247</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13">
+      <c r="E11" s="9"/>
+      <c r="F11" s="10">
         <f t="shared" si="0"/>
-        <v>0.21588768164025732</v>
-      </c>
-      <c r="G11" s="13">
+        <v>0.28271773064025729</v>
+      </c>
+      <c r="G11" s="10">
         <f t="shared" si="1"/>
-        <v>0.71786047761174476</v>
-      </c>
-      <c r="I11" s="16">
+        <v>0.73390433954810941</v>
+      </c>
+      <c r="I11" s="13">
         <f t="shared" si="2"/>
-        <v>0.15497723425276741</v>
+        <v>0.20748776938407831</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -4631,24 +4622,24 @@
       <c r="B12" s="8">
         <v>500</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="9">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="9">
         <v>0.247</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13">
+      <c r="E12" s="9"/>
+      <c r="F12" s="10">
         <f t="shared" si="0"/>
-        <v>0.1997343021928579</v>
-      </c>
-      <c r="G12" s="13">
+        <v>0.26656435119285787</v>
+      </c>
+      <c r="G12" s="10">
         <f t="shared" si="1"/>
-        <v>0.73624536266345986</v>
-      </c>
-      <c r="I12" s="16">
+        <v>0.75502649176795311</v>
+      </c>
+      <c r="I12" s="13">
         <f t="shared" si="2"/>
-        <v>0.14705345375431375</v>
+        <v>0.20126314691154407</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -4658,24 +4649,24 @@
       <c r="B13" s="8">
         <v>565</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="9">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="9">
         <v>0.247</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13">
+      <c r="E13" s="9"/>
+      <c r="F13" s="10">
         <f t="shared" si="0"/>
-        <v>0.18303039733129381</v>
-      </c>
-      <c r="G13" s="13">
+        <v>0.24986044633129378</v>
+      </c>
+      <c r="G13" s="10">
         <f t="shared" si="1"/>
-        <v>0.75366577121197886</v>
-      </c>
-      <c r="I13" s="16">
+        <v>0.77593493984243345</v>
+      </c>
+      <c r="I13" s="13">
         <f t="shared" si="2"/>
-        <v>0.13794374555992447</v>
+        <v>0.19387545039307602</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -4685,24 +4676,24 @@
       <c r="B14" s="8">
         <v>630</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="9">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="9">
         <v>0.247</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13">
+      <c r="E14" s="9"/>
+      <c r="F14" s="10">
         <f t="shared" si="0"/>
-        <v>0.17015082499867293</v>
-      </c>
-      <c r="G14" s="13">
+        <v>0.2369808739986729</v>
+      </c>
+      <c r="G14" s="10">
         <f t="shared" si="1"/>
-        <v>0.76573330781886395</v>
-      </c>
-      <c r="I14" s="16">
+        <v>0.79128209257322002</v>
+      </c>
+      <c r="I14" s="13">
         <f t="shared" si="2"/>
-        <v>0.13029015405434247</v>
+        <v>0.18751872187750049</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -4712,24 +4703,24 @@
       <c r="B15" s="8">
         <v>695</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="9">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="9">
         <v>0.247</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13">
+      <c r="E15" s="9"/>
+      <c r="F15" s="10">
         <f t="shared" si="0"/>
-        <v>0.16022001032713387</v>
-      </c>
-      <c r="G15" s="13">
+        <v>0.22705005932713385</v>
+      </c>
+      <c r="G15" s="10">
         <f t="shared" si="1"/>
-        <v>0.77404616517093494</v>
-      </c>
-      <c r="I15" s="16">
+        <v>0.8025667166474677</v>
+      </c>
+      <c r="I15" s="13">
         <f t="shared" si="2"/>
-        <v>0.12401768457736556</v>
+        <v>0.18222282062879055</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -4739,24 +4730,24 @@
       <c r="B16" s="8">
         <v>760</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="9">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="9">
         <v>0.247</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13">
+      <c r="E16" s="9"/>
+      <c r="F16" s="10">
         <f t="shared" si="0"/>
-        <v>0.15256283992632233</v>
-      </c>
-      <c r="G16" s="13">
+        <v>0.2193928889263223</v>
+      </c>
+      <c r="G16" s="10">
         <f t="shared" si="1"/>
-        <v>0.77975469163680844</v>
-      </c>
-      <c r="I16" s="16">
+        <v>0.81088469876849689</v>
+      </c>
+      <c r="I16" s="13">
         <f t="shared" si="2"/>
-        <v>0.11896159020198524</v>
+        <v>0.17790233664897115</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -4766,24 +4757,24 @@
       <c r="B17" s="8">
         <v>825</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="9">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="9">
         <v>0.247</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13">
+      <c r="E17" s="9"/>
+      <c r="F17" s="10">
         <f t="shared" si="0"/>
-        <v>0.14665876654600848</v>
-      </c>
-      <c r="G17" s="13">
+        <v>0.21348881554600846</v>
+      </c>
+      <c r="G17" s="10">
         <f t="shared" si="1"/>
-        <v>0.78367174161611597</v>
-      </c>
-      <c r="I17" s="16">
+        <v>0.81703360762850497</v>
+      </c>
+      <c r="I17" s="13">
         <f t="shared" si="2"/>
-        <v>0.11493233100238183</v>
+        <v>0.17442753715389175</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -4793,24 +4784,24 @@
       <c r="B18" s="8">
         <v>250</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="9">
         <v>0.11799999999999999</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13">
+      <c r="E18" s="9"/>
+      <c r="F18" s="10">
         <f t="shared" si="0"/>
-        <v>0.32474630073552457</v>
-      </c>
-      <c r="G18" s="13">
+        <v>0.35667320673552455</v>
+      </c>
+      <c r="G18" s="10">
         <f t="shared" si="1"/>
-        <v>0.50023103184366002</v>
-      </c>
-      <c r="I18" s="16">
+        <v>0.50829940394135487</v>
+      </c>
+      <c r="I18" s="13">
         <f t="shared" si="2"/>
-        <v>0.16244817710434298</v>
+        <v>0.18129677838551878</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -4820,24 +4811,24 @@
       <c r="B19" s="8">
         <v>300</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="9">
         <v>0.11799999999999999</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13">
-        <f t="shared" ref="F19:F28" si="3">0.1261+0.5391*EXP(-0.004*B19)+0.002733*D19</f>
-        <v>0.28879629364186815</v>
-      </c>
-      <c r="G19" s="13">
-        <f t="shared" ref="G19:G28" si="4">(1-C19/(C19+F19))*(0.93 - 0.92*EXP(-0.0042*B19))</f>
-        <v>0.53851108136709869</v>
-      </c>
-      <c r="I19" s="16">
+      <c r="E19" s="9"/>
+      <c r="F19" s="10">
+        <f t="shared" si="0"/>
+        <v>0.32072319964186813</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" ref="G19:G28" si="3">(1-C19/(C19+F19))*(0.93 - 0.92*EXP(-0.0042*B19))</f>
+        <v>0.54917676516504244</v>
+      </c>
+      <c r="I19" s="13">
         <f t="shared" si="2"/>
-        <v>0.15552000438389257</v>
+        <v>0.17613372929270324</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -4847,24 +4838,24 @@
       <c r="B20" s="8">
         <v>350</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="9">
         <v>0.11799999999999999</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13">
+      <c r="E20" s="9"/>
+      <c r="F20" s="10">
+        <f t="shared" si="0"/>
+        <v>0.29128982326092001</v>
+      </c>
+      <c r="G20" s="10">
         <f t="shared" si="3"/>
-        <v>0.25936291726092003</v>
-      </c>
-      <c r="G20" s="13">
-        <f t="shared" si="4"/>
-        <v>0.56577134298827669</v>
-      </c>
-      <c r="I20" s="16">
+        <v>0.57926507897718849</v>
+      </c>
+      <c r="I20" s="13">
         <f t="shared" si="2"/>
-        <v>0.14674010602006801</v>
+        <v>0.16873402247648811</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -4874,24 +4865,24 @@
       <c r="B21" s="8">
         <v>450</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="9">
         <v>0.11799999999999999</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13">
+      <c r="E21" s="9"/>
+      <c r="F21" s="10">
+        <f t="shared" si="0"/>
+        <v>0.24746203064025729</v>
+      </c>
+      <c r="G21" s="10">
         <f t="shared" si="3"/>
-        <v>0.21553512464025731</v>
-      </c>
-      <c r="G21" s="13">
-        <f t="shared" si="4"/>
-        <v>0.59709392136899886</v>
-      </c>
-      <c r="I21" s="16">
+        <v>0.6165963042587661</v>
+      </c>
+      <c r="I21" s="13">
         <f t="shared" si="2"/>
-        <v>0.12869471276420716</v>
+        <v>0.15258417353715217</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -4901,24 +4892,24 @@
       <c r="B22" s="8">
         <v>500</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="9">
         <v>0.11799999999999999</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13">
+      <c r="E22" s="9"/>
+      <c r="F22" s="10">
+        <f t="shared" si="0"/>
+        <v>0.23130865119285787</v>
+      </c>
+      <c r="G22" s="10">
         <f t="shared" si="3"/>
-        <v>0.1993817451928579</v>
-      </c>
-      <c r="G22" s="13">
-        <f t="shared" si="4"/>
-        <v>0.60495076475036524</v>
-      </c>
-      <c r="I22" s="16">
+        <v>0.62745570733441436</v>
+      </c>
+      <c r="I22" s="13">
         <f t="shared" si="2"/>
-        <v>0.12061613923168184</v>
+        <v>0.14513593334678396</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -4928,24 +4919,24 @@
       <c r="B23" s="8">
         <v>565</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="9">
         <v>0.11799999999999999</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13">
+      <c r="E23" s="9"/>
+      <c r="F23" s="10">
+        <f t="shared" si="0"/>
+        <v>0.21460474633129378</v>
+      </c>
+      <c r="G23" s="10">
         <f t="shared" si="3"/>
-        <v>0.18267784033129381</v>
-      </c>
-      <c r="G23" s="13">
-        <f t="shared" si="4"/>
-        <v>0.61036909366582992</v>
-      </c>
-      <c r="I23" s="16">
+        <v>0.6366064093850885</v>
+      </c>
+      <c r="I23" s="13">
         <f t="shared" si="2"/>
-        <v>0.11150090783584299</v>
+        <v>0.13661875699896267</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -4955,24 +4946,24 @@
       <c r="B24" s="8">
         <v>630</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="9">
         <v>0.11799999999999999</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13">
+      <c r="E24" s="9"/>
+      <c r="F24" s="10">
+        <f t="shared" si="0"/>
+        <v>0.2017251739986729</v>
+      </c>
+      <c r="G24" s="10">
         <f t="shared" si="3"/>
-        <v>0.16979826799867292</v>
-      </c>
-      <c r="G24" s="13">
-        <f t="shared" si="4"/>
-        <v>0.61231224805035023</v>
-      </c>
-      <c r="I24" s="16">
+        <v>0.6419718070140793</v>
+      </c>
+      <c r="I24" s="13">
         <f t="shared" si="2"/>
-        <v>0.10396955919332326</v>
+        <v>0.12950187447215761</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -4982,24 +4973,24 @@
       <c r="B25" s="8">
         <v>695</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="9">
         <v>0.11799999999999999</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13">
+      <c r="E25" s="9"/>
+      <c r="F25" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19179435932713385</v>
+      </c>
+      <c r="G25" s="10">
         <f t="shared" si="3"/>
-        <v>0.15986745332713387</v>
-      </c>
-      <c r="G25" s="13">
-        <f t="shared" si="4"/>
-        <v>0.61224993442714681</v>
-      </c>
-      <c r="I25" s="16">
+        <v>0.6449435746579012</v>
+      </c>
+      <c r="I25" s="13">
         <f t="shared" si="2"/>
-        <v>9.7878837816572667E-2</v>
+        <v>0.12369653970366368</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -5009,24 +5000,24 @@
       <c r="B26" s="8">
         <v>760</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="9">
         <v>0.11799999999999999</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13">
+      <c r="E26" s="9"/>
+      <c r="F26" s="10">
+        <f t="shared" si="0"/>
+        <v>0.1841371889263223</v>
+      </c>
+      <c r="G26" s="10">
         <f t="shared" si="3"/>
-        <v>0.15221028292632233</v>
-      </c>
-      <c r="G26" s="13">
-        <f t="shared" si="4"/>
-        <v>0.61114022778197818</v>
-      </c>
-      <c r="I26" s="16">
+        <v>0.64644907431887944</v>
+      </c>
+      <c r="I26" s="13">
         <f t="shared" si="2"/>
-        <v>9.3021826978351971E-2</v>
+        <v>0.11903531532910167</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -5036,24 +5027,24 @@
       <c r="B27" s="8">
         <v>825</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="9">
         <v>0.11799999999999999</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13">
+      <c r="E27" s="9"/>
+      <c r="F27" s="10">
+        <f t="shared" si="0"/>
+        <v>0.17823311554600846</v>
+      </c>
+      <c r="G27" s="10">
         <f t="shared" si="3"/>
-        <v>0.14630620954600848</v>
-      </c>
-      <c r="G27" s="13">
-        <f t="shared" si="4"/>
-        <v>0.60957739059038352</v>
-      </c>
-      <c r="I27" s="16">
+        <v>0.64708861559433528</v>
+      </c>
+      <c r="I27" s="13">
         <f t="shared" si="2"/>
-        <v>8.918495744222571E-2</v>
+        <v>0.11533261999173181</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -5063,24 +5054,24 @@
       <c r="B28" s="8">
         <v>250</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="9">
         <v>0.39400000000000002</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="9">
         <v>0.06</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12">
+      <c r="E28" s="9"/>
+      <c r="F28" s="10">
+        <f t="shared" si="0"/>
+        <v>0.34082180673552459</v>
+      </c>
+      <c r="G28" s="9">
         <f t="shared" si="3"/>
-        <v>0.32458778673552457</v>
-      </c>
-      <c r="G28" s="12">
-        <f t="shared" si="4"/>
-        <v>0.27466089375077823</v>
-      </c>
-      <c r="I28" s="16">
+        <v>0.28202643925258797</v>
+      </c>
+      <c r="I28" s="13">
         <f t="shared" si="2"/>
-        <v>8.9151571605366187E-2</v>
+        <v>9.6120760573253708E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -5090,24 +5081,24 @@
       <c r="B29" s="8">
         <v>300</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="9">
         <v>0.39400000000000002</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="9">
         <v>0.06</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12">
-        <f t="shared" ref="F29:F37" si="5">0.1261+0.5391*EXP(-0.004*B29)+0.002733*D29</f>
-        <v>0.28863777964186815</v>
-      </c>
-      <c r="G29" s="12">
-        <f t="shared" ref="G29:G37" si="6">(1-C29/(C29+F29))*(0.93 - 0.92*EXP(-0.0042*B29))</f>
-        <v>0.28288754871508665</v>
-      </c>
-      <c r="I29" s="16">
+      <c r="E29" s="9"/>
+      <c r="F29" s="10">
+        <f t="shared" si="0"/>
+        <v>0.30487179964186817</v>
+      </c>
+      <c r="G29" s="9">
+        <f t="shared" ref="G29:G37" si="4">(1-C29/(C29+F29))*(0.93 - 0.92*EXP(-0.0042*B29))</f>
+        <v>0.29185740406121036</v>
+      </c>
+      <c r="I29" s="13">
         <f t="shared" si="2"/>
-        <v>8.1652033949453418E-2</v>
+        <v>8.8979092014945083E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -5117,24 +5108,24 @@
       <c r="B30" s="8">
         <v>350</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="9">
         <v>0.39400000000000002</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="9">
         <v>0.06</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12">
-        <f t="shared" si="5"/>
-        <v>0.25920440326092004</v>
-      </c>
-      <c r="G30" s="12">
-        <f t="shared" si="6"/>
-        <v>0.28510250662004283</v>
-      </c>
-      <c r="I30" s="16">
+      <c r="E30" s="9"/>
+      <c r="F30" s="10">
+        <f t="shared" si="0"/>
+        <v>0.27543842326092005</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" si="4"/>
+        <v>0.29561172274806524</v>
+      </c>
+      <c r="I30" s="13">
         <f t="shared" si="2"/>
-        <v>7.3899825096640712E-2</v>
+        <v>8.1422826811171342E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -5144,24 +5135,24 @@
       <c r="B31" s="8">
         <v>450</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="9">
         <v>0.39400000000000002</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="9">
         <v>0.06</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12">
-        <f t="shared" si="5"/>
-        <v>0.21537661064025732</v>
-      </c>
-      <c r="G31" s="12">
-        <f t="shared" si="6"/>
-        <v>0.27957407209641205</v>
-      </c>
-      <c r="I31" s="16">
+      <c r="E31" s="9"/>
+      <c r="F31" s="10">
+        <f t="shared" si="0"/>
+        <v>0.2316106306402573</v>
+      </c>
+      <c r="G31" s="9">
+        <f t="shared" si="4"/>
+        <v>0.29284546578869847</v>
+      </c>
+      <c r="I31" s="13">
         <f t="shared" si="2"/>
-        <v>6.0213716071020162E-2</v>
+        <v>6.7826123011460349E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -5171,24 +5162,24 @@
       <c r="B32" s="8">
         <v>500</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="9">
         <v>0.39400000000000002</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="9">
         <v>0.06</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12">
-        <f t="shared" si="5"/>
-        <v>0.1992232311928579</v>
-      </c>
-      <c r="G32" s="12">
-        <f t="shared" si="6"/>
-        <v>0.27448880009366444</v>
-      </c>
-      <c r="I32" s="16">
+      <c r="E32" s="9"/>
+      <c r="F32" s="10">
+        <f t="shared" si="0"/>
+        <v>0.21545725119285788</v>
+      </c>
+      <c r="G32" s="9">
+        <f t="shared" si="4"/>
+        <v>0.28894864713838891</v>
+      </c>
+      <c r="I32" s="13">
         <f t="shared" si="2"/>
-        <v>5.4684545680910267E-2</v>
+        <v>6.2256081248332318E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -5198,24 +5189,24 @@
       <c r="B33" s="8">
         <v>565</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="9">
         <v>0.39400000000000002</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="9">
         <v>0.06</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12">
-        <f t="shared" si="5"/>
-        <v>0.18251932633129381</v>
-      </c>
-      <c r="G33" s="12">
-        <f t="shared" si="6"/>
-        <v>0.26728144411074717</v>
-      </c>
-      <c r="I33" s="16">
+      <c r="E33" s="9"/>
+      <c r="F33" s="10">
+        <f t="shared" si="0"/>
+        <v>0.1987533463312938</v>
+      </c>
+      <c r="G33" s="9">
+        <f t="shared" si="4"/>
+        <v>0.28308330506726398</v>
+      </c>
+      <c r="I33" s="13">
         <f t="shared" si="2"/>
-        <v>4.8784029119948932E-2</v>
+        <v>5.6263754172641213E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -5225,24 +5216,24 @@
       <c r="B34" s="8">
         <v>630</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <v>0.39400000000000002</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <v>0.06</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12">
-        <f t="shared" si="5"/>
-        <v>0.16963975399867293</v>
-      </c>
-      <c r="G34" s="12">
-        <f t="shared" si="6"/>
-        <v>0.26026259159620063</v>
-      </c>
-      <c r="I34" s="16">
+      <c r="E34" s="9"/>
+      <c r="F34" s="10">
+        <f t="shared" si="0"/>
+        <v>0.18587377399867291</v>
+      </c>
+      <c r="G34" s="9">
+        <f t="shared" si="4"/>
+        <v>0.2771854198611991</v>
+      </c>
+      <c r="I34" s="13">
         <f t="shared" si="2"/>
-        <v>4.4150882013436553E-2</v>
+        <v>5.1521500087007781E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -5252,24 +5243,24 @@
       <c r="B35" s="8">
         <v>695</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="9">
         <v>0.39400000000000002</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="9">
         <v>0.06</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12">
-        <f t="shared" si="5"/>
-        <v>0.15970893932713387</v>
-      </c>
-      <c r="G35" s="12">
-        <f t="shared" si="6"/>
-        <v>0.25391822019617905</v>
-      </c>
-      <c r="I35" s="16">
+      <c r="E35" s="9"/>
+      <c r="F35" s="10">
+        <f t="shared" si="0"/>
+        <v>0.17594295932713386</v>
+      </c>
+      <c r="G35" s="9">
+        <f t="shared" si="4"/>
+        <v>0.27176071361820059</v>
+      </c>
+      <c r="I35" s="13">
         <f t="shared" si="2"/>
-        <v>4.0553009623365374E-2</v>
+        <v>4.7814384182839939E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -5279,24 +5270,24 @@
       <c r="B36" s="8">
         <v>760</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="9">
         <v>0.39400000000000002</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="9">
         <v>0.06</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12">
-        <f t="shared" si="5"/>
-        <v>0.15205176892632233</v>
-      </c>
-      <c r="G36" s="12">
-        <f t="shared" si="6"/>
-        <v>0.24843838045964511</v>
-      </c>
-      <c r="I36" s="16">
+      <c r="E36" s="9"/>
+      <c r="F36" s="10">
+        <f t="shared" si="0"/>
+        <v>0.16828578892632232</v>
+      </c>
+      <c r="G36" s="9">
+        <f t="shared" si="4"/>
+        <v>0.26702465738475173</v>
+      </c>
+      <c r="I36" s="13">
         <f t="shared" si="2"/>
-        <v>3.7775495218079713E-2</v>
+        <v>4.4936455130773864E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -5306,24 +5297,24 @@
       <c r="B37" s="8">
         <v>825</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="9">
         <v>0.39400000000000002</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="9">
         <v>0.06</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12">
-        <f t="shared" si="5"/>
-        <v>0.14614769554600848</v>
-      </c>
-      <c r="G37" s="12">
-        <f t="shared" si="6"/>
-        <v>0.24384537503739323</v>
-      </c>
-      <c r="I37" s="16">
+      <c r="E37" s="9"/>
+      <c r="F37" s="10">
+        <f t="shared" si="0"/>
+        <v>0.16238171554600847</v>
+      </c>
+      <c r="G37" s="9">
+        <f t="shared" si="4"/>
+        <v>0.2630264083795032</v>
+      </c>
+      <c r="I37" s="13">
         <f t="shared" si="2"/>
-        <v>3.5637439631267205E-2</v>
+        <v>4.2710679426568747E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5457,34 +5448,34 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>7</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>5.4</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>495</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="12">
         <v>48.9</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="12">
         <v>2.4</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="12">
         <v>390</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="12">
         <v>11.8</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="12">
         <v>7.1</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="12">
         <v>294</v>
       </c>
     </row>
@@ -5649,34 +5640,34 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>39.4</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="12">
         <v>9.9</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="12">
         <v>54</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="12">
         <v>51.1</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="12">
         <v>5.6</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="12">
         <v>56</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="12">
         <v>6</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="12">
         <v>9.6999999999999993</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="12">
         <v>13</v>
       </c>
     </row>
@@ -5713,34 +5704,34 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="12">
         <v>3.9</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="12">
         <v>507</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="12">
         <v>50.7</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="12">
         <v>2.1</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="12">
         <v>488</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="12">
         <v>24.7</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="12">
         <v>6.8</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="12">
         <v>136</v>
       </c>
     </row>
@@ -5750,66 +5741,66 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
